--- a/testdata/Registration_Testcases.xlsx
+++ b/testdata/Registration_Testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naveen.prakash\Downloads\automationpractice-site-automation\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22336A4F-AEC8-4BFA-9549-D299D2EF9D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918962DF-1434-490E-BC29-D481C52ECEB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>Test_Case_ID</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Expected_Result</t>
   </si>
   <si>
-    <t>REG-01</t>
-  </si>
-  <si>
     <t>Registration</t>
   </si>
   <si>
@@ -68,15 +65,9 @@
     <t>High</t>
   </si>
   <si>
-    <t>REG-02</t>
-  </si>
-  <si>
     <t>Register with minimum valid password</t>
   </si>
   <si>
-    <t>REG-NEG-01</t>
-  </si>
-  <si>
     <t>Register with already registered email</t>
   </si>
   <si>
@@ -86,15 +77,9 @@
     <t>Register with invalid email format</t>
   </si>
   <si>
-    <t>REG-NEG-03</t>
-  </si>
-  <si>
     <t>Register with weak password</t>
   </si>
   <si>
-    <t>REG-NEG-04</t>
-  </si>
-  <si>
     <t>Register with blank fields</t>
   </si>
   <si>
@@ -126,13 +111,31 @@
   </si>
   <si>
     <t>Test1234!4567</t>
+  </si>
+  <si>
+    <t>TC_Registration_ValidEmailAndPassword</t>
+  </si>
+  <si>
+    <t>TC_Registration_MinPasswordLength</t>
+  </si>
+  <si>
+    <t>NTC_Registration_AlreadyRegisteredEmail</t>
+  </si>
+  <si>
+    <t>NTC_Registration_InvalidEmailFormat</t>
+  </si>
+  <si>
+    <t>NTC_Registration_WeakPassword</t>
+  </si>
+  <si>
+    <t>NTC_Registration_BlankFields</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,6 +161,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -202,7 +211,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -216,6 +225,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -522,12 +532,12 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.08984375" customWidth="1"/>
@@ -560,17 +570,17 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="E2" s="2" t="str">
         <f ca="1">"user"&amp;
@@ -584,97 +594,97 @@
 CHAR(RANDBETWEEN(65,90))&amp;
 RANDBETWEEN(1000,9999)&amp;
 "@gmail.com"</f>
-        <v>userOIMQRBY3456@gmail.com</v>
+        <v>userLGGALEL5573@gmail.com</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="40" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>11</v>
+      <c r="A3" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2" t="str">
         <f ca="1">E6</f>
-        <v>userQEWQKXM1974@gmail.com</v>
+        <v>userIVUAJBV3269@gmail.com</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>13</v>
+      <c r="A4" t="s">
+        <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="40" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>15</v>
+      <c r="A5" t="s">
+        <v>29</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>17</v>
+      <c r="A6" t="s">
+        <v>30</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="2" t="str">
         <f ca="1">"user"&amp;
@@ -688,27 +698,27 @@
 CHAR(RANDBETWEEN(65,90))&amp;
 RANDBETWEEN(1000,9999)&amp;
 "@gmail.com"</f>
-        <v>userQEWQKXM1974@gmail.com</v>
+        <v>userIVUAJBV3269@gmail.com</v>
       </c>
       <c r="F6" s="2">
         <v>123</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>19</v>
+      <c r="A7" t="s">
+        <v>31</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="2" t="str">
         <f ca="1">"user"&amp;
@@ -722,11 +732,11 @@
 CHAR(RANDBETWEEN(65,90))&amp;
 RANDBETWEEN(1000,9999)&amp;
 "@gmail.com"</f>
-        <v>userEBDAKPW6278@gmail.com</v>
+        <v>userYHEGOHE5896@gmail.com</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
